--- a/Week11. first_turn_ending/Resume11.xlsx
+++ b/Week11. first_turn_ending/Resume11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Фамилия</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t xml:space="preserve">Руданов, Асеев, </t>
+  </si>
+  <si>
+    <t>5-</t>
+  </si>
+  <si>
+    <t>4+</t>
   </si>
 </sst>
 </file>
@@ -488,7 +494,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +577,7 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -619,7 +625,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -633,7 +639,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
@@ -650,7 +656,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -664,7 +670,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -678,7 +684,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -711,58 +717,76 @@
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
